--- a/public/data/Data.xlsx
+++ b/public/data/Data.xlsx
@@ -409,11 +409,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>• 	Desarrollo front‑end y optimización de interfaces.
-• 	Testing de UX/UI y mejora de experiencia de usuario.
-• 	Migración y gestión de servidores.
-• 	Data analytics aplicado a campañas digitales (Meta Ads).
-• 	Integración de tecnología y marketing para resultados medibles.</t>
+          <t>•1Desarrollo front‑end y optimización de interfaces.\&lt;br&gt;•1Testing de UX/UI y mejora de experiencia de usuario.\&lt;br&gt;•1Migración y gestión de servidores.\&lt;br&gt;•1Data analytics aplicado a campañas digitales (Meta Ads).\&lt;br&gt;•1Integración de tecnología y marketing para resultados medibles.</t>
         </is>
       </c>
     </row>
@@ -435,16 +431,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Profesor de Programación, Computación y Robótica\&lt;br&gt;1Impartición de clases en todos los niveles educativos de la institución.\&lt;br&gt;1Diseño de contenidos adaptados a la edad y nivel académico de los estudiantes.\&lt;br&gt;1	Promoción del pensamiento lógico, la creatividad y la resolución de problemas mediante tecnología.\&lt;br&gt;Encargado de la Selección de Robótica\&lt;br&gt;1Dirección y entrenamiento de estudiantes en el equipo de robótica institucional.\&lt;br&gt;1Organización de actividades y preparación para competencias.\&lt;br&gt;1Desarrollo de proyectos prácticos que integran programación, electrónica y diseño.</t>
+          <t>Profesor de Programación, Computación y Robótica\&lt;br&gt;1Impartición de clases en todos los niveles educativos de la institución.\&lt;br&gt;1Diseño de contenidos adaptados a la edad y nivel académico de los estudiantes.\&lt;br&gt;1Promoción del pensamiento lógico, la creatividad y la resolución de problemas mediante tecnología.\&lt;br&gt;Encargado de la Selección de Robótica\&lt;br&gt;1Dirección y entrenamiento de estudiantes en el equipo de robótica institucional.\&lt;br&gt;1Organización de actividades y preparación para competencias.\&lt;br&gt;1Desarrollo de proyectos prácticos que integran programación, electrónica y diseño.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>• 	Educación tecnológica en múltiples niveles académicos.
-• 	Adaptación pedagógica de contenidos STEM.
-• 	Liderazgo en equipos de robótica.
-• 	Promoción de competencias y proyectos tecnológicos.
-• 	Fomento de habilidades digitales desde edades tempranas.</t>
+          <t>•1Educación tecnológica en múltiples niveles académicos.\&lt;br&gt;•1Adaptación pedagógica de contenidos STEM.\&lt;br&gt;•1Liderazgo en equipos de robótica.\&lt;br&gt;•1Promoción de competencias y proyectos tecnológicos.\&lt;br&gt;•1Fomento de habilidades digitales desde edades tempranas.</t>
         </is>
       </c>
     </row>
@@ -471,10 +463,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>• 	Desarrollo front‑end con Tailwind CSS.
-• 	Migración y optimización de estilos CSS/Sass.
-• 	Control de versiones con GitLab.
-• 	Testing de UX/UI y mejora de experiencia de usuario.</t>
+          <t>•1Desarrollo front‑end con Tailwind CSS.\&lt;br&gt;•1Migración y optimización de estilos CSS/Sass.\&lt;br&gt;•1Control de versiones con GitLab.\&lt;br&gt;•1Testing de UX/UI y mejora de experiencia de usuario.</t>
         </is>
       </c>
     </row>
@@ -501,11 +490,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>• 	Educación tecnológica y metodologías STEM.
-• 	Liderazgo y gestión académica.
-• 	Programación y desarrollo de software.
-• 	Organización de competencias y proyectos educativos.
-• 	Innovación en procesos administrativos.</t>
+          <t>•1Educación tecnológica y metodologías STEM.\&lt;br&gt;•1Liderazgo y gestión académica.\&lt;br&gt;•1Programación y desarrollo de software.\&lt;br&gt;•1Organización de competencias y proyectos educativos.\&lt;br&gt;•1Innovación en procesos administrativos.</t>
         </is>
       </c>
     </row>

--- a/public/data/Data.xlsx
+++ b/public/data/Data.xlsx
@@ -357,6 +357,7 @@
     <col width="23.28" customWidth="1" min="3" max="3"/>
     <col width="23.28" customWidth="1" min="4" max="4"/>
     <col width="23.28" customWidth="1" min="5" max="5"/>
+    <col width="23.28" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.2" customHeight="1">
@@ -385,6 +386,11 @@
           <t>competencias</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Tecnologias</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="19.2" customHeight="1">
       <c r="A2" t="inlineStr">
@@ -412,6 +418,11 @@
           <t>•1Desarrollo front‑end y optimización de interfaces.\&lt;br&gt;•1Testing de UX/UI y mejora de experiencia de usuario.\&lt;br&gt;•1Migración y gestión de servidores.\&lt;br&gt;•1Data analytics aplicado a campañas digitales (Meta Ads).\&lt;br&gt;•1Integración de tecnología y marketing para resultados medibles.</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Figma, Framer, WordPress, Elementor, Namecheap, Meta, Vue</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="19.2" customHeight="1">
       <c r="A3" t="inlineStr">
@@ -439,6 +450,11 @@
           <t>•1Educación tecnológica en múltiples niveles académicos.\&lt;br&gt;•1Adaptación pedagógica de contenidos STEM.\&lt;br&gt;•1Liderazgo en equipos de robótica.\&lt;br&gt;•1Promoción de competencias y proyectos tecnológicos.\&lt;br&gt;•1Fomento de habilidades digitales desde edades tempranas.</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Arduino, Python, Scratch, LegoSpike</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="19.2" customHeight="1">
       <c r="A4" t="inlineStr">
@@ -466,6 +482,11 @@
           <t>•1Desarrollo front‑end con Tailwind CSS.\&lt;br&gt;•1Migración y optimización de estilos CSS/Sass.\&lt;br&gt;•1Control de versiones con GitLab.\&lt;br&gt;•1Testing de UX/UI y mejora de experiencia de usuario.</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vue, Figma, GitLab, Tailwindcss, SassCss</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="19.2" customHeight="1">
       <c r="A5" t="inlineStr">
@@ -491,6 +512,11 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>•1Educación tecnológica y metodologías STEM.\&lt;br&gt;•1Liderazgo y gestión académica.\&lt;br&gt;•1Programación y desarrollo de software.\&lt;br&gt;•1Organización de competencias y proyectos educativos.\&lt;br&gt;•1Innovación en procesos administrativos.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Arduino, Cpp, Python, Lua, CustomTkinter, Flet, Scratch, mBlock, MicroBit, Tinkercad, RobloxStudio</t>
         </is>
       </c>
     </row>

--- a/public/data/Data.xlsx
+++ b/public/data/Data.xlsx
@@ -356,7 +356,7 @@
     <col width="23.28" customWidth="1" min="2" max="2"/>
     <col width="23.28" customWidth="1" min="3" max="3"/>
     <col width="23.28" customWidth="1" min="4" max="4"/>
-    <col width="23.28" customWidth="1" min="5" max="5"/>
+    <col width="19.09" customWidth="1" min="5" max="5"/>
     <col width="23.28" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -420,7 +420,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Figma, Framer, WordPress, Elementor, Namecheap, Meta, Vue</t>
+          <t>Figma, Framer, WordPress, Elementor, Namecheap, Meta, Vue, JavaScript, Git , GitHub</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Arduino, Python, Scratch, LegoSpike</t>
+          <t>Arduino, Python, Scratch, LegoSpike, git, github</t>
         </is>
       </c>
     </row>
@@ -484,7 +484,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vue, Figma, GitLab, Tailwindcss, SassCss</t>
+          <t>Vue, Figma, GitLab, Tailwindcss, SassCss, git</t>
         </is>
       </c>
     </row>

--- a/public/data/Data.xlsx
+++ b/public/data/Data.xlsx
@@ -415,7 +415,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>•1Desarrollo front‑end y optimización de interfaces.\&lt;br&gt;•1Testing de UX/UI y mejora de experiencia de usuario.\&lt;br&gt;•1Migración y gestión de servidores.\&lt;br&gt;•1Data analytics aplicado a campañas digitales (Meta Ads).\&lt;br&gt;•1Integración de tecnología y marketing para resultados medibles.</t>
+          <t>•1Desarrollo front‑end y optimización de interfaces.\&lt;br&gt;•1Testing de UX/UI y mejora de experiencia de usuario.\&lt;br&gt;•1Migración y gestión de servidores.\&lt;br&gt;•1Data Analytics aplicado a campañas digitales (Meta Ads).\&lt;br&gt;•1Integración de tecnología y marketing para resultados medibles.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>•1Desarrollo front‑end con Tailwind CSS.\&lt;br&gt;•1Migración y optimización de estilos CSS/Sass.\&lt;br&gt;•1Control de versiones con GitLab.\&lt;br&gt;•1Testing de UX/UI y mejora de experiencia de usuario.</t>
+          <t>•1Desarrollo Front‑End con Tailwind CSS.\&lt;br&gt;•1Migración y optimización de estilos CSS/Sass.\&lt;br&gt;•1Control de versiones con GitLab.\&lt;br&gt;•1Testing de UX/UI y mejora de experiencia de usuario.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Profesor de Robótica\&lt;br&gt;1Impartición de clases en escuelas afiliadas a la academia.​\&lt;br&gt;1Diseño de contenidos educativos adaptados a diferentes edades.​\&lt;br&gt;Coach de equipo de competencia\&lt;br&gt;1Entrenador del equipo Maetinbot en la primera competencia de robótica organizada por la ONU.​\&lt;br&gt;1Logro destacado: tercer lugar en estadales y clasificación a nacionales.​\&lt;br&gt;Líder del Departamento de Escuelas\&lt;br&gt;1Gestión de inventario y recursos humanos.​\&lt;br&gt;1Coordinación de alrededor de doce escuelas afiliadas.​\&lt;br&gt;1Supervisión de actividades académicas y administrativas.​\&lt;br&gt;Profesor de Programación en el programa “Creando Mi Futuro”​\&lt;br&gt;1Formación tecnológica en estudiantes de 8+ años.​\&lt;br&gt;1Enseñanza de programación dentro de un módulo educativo de 6 meses que incluía robótica, electrónica, diseño y animación.​\&lt;br&gt;Desarrollador de aplicaciones de escritorio\&lt;br&gt;1Creación de herramientas para la automatización de procesos administrativos.​\&lt;br&gt;1Implementación de soluciones tecnológicas para mejorar la eficiencia del departamento de escuelas.​</t>
+          <t>Profesor de Robótica\&lt;br&gt;1Impartición de clases en escuelas afiliadas a la academia.​\&lt;br&gt;1Diseño de contenidos educativos adaptados a diferentes edades.​\&lt;br&gt;Coach de equipo de competencia\&lt;br&gt;1Entrenador del equipo MAETIM-BOT en la primera competencia de robótica organizada por la ONU "AI for Good".​\&lt;br&gt;1Logro destacado: tercer lugar en estadales y clasificación a nacionales.​\&lt;br&gt;Líder del Departamento de Escuelas\&lt;br&gt;1Gestión de inventario y recursos humanos.​\&lt;br&gt;1Coordinación de alrededor de doce escuelas afiliadas.​\&lt;br&gt;1Supervisión de actividades académicas y administrativas.​\&lt;br&gt;Profesor de Programación en el programa “Creando Mi Futuro”​\&lt;br&gt;1Formación tecnológica en estudiantes de 8+ años.​\&lt;br&gt;1Enseñanza de programación dentro de un módulo educativo de 6 meses que incluía robótica, electrónica, diseño y animación.​\&lt;br&gt;Desarrollador de aplicaciones de escritorio\&lt;br&gt;1Creación de herramientas para la automatización de procesos administrativos.​\&lt;br&gt;1Implementación de soluciones tecnológicas para mejorar la eficiencia del departamento de escuelas.​</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">

--- a/public/data/Data.xlsx
+++ b/public/data/Data.xlsx
@@ -410,7 +410,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Front‑End Developer\&lt;br&gt;1Desarrollo y optimización de interfaces de usuario.\&lt;br&gt;1Implementación de estilos y componentes visuales modernos.\&lt;br&gt;Especialista en Testing UX/UI\&lt;br&gt;1Evaluación de la experiencia de usuario.\&lt;br&gt;1Pruebas de usabilidad y retroalimentación para mejorar la interfaz.\&lt;br&gt;Administrador de Migración de Servidores\&lt;br&gt;1Apoyo en procesos de migración y configuración de servidores.\&lt;br&gt;1Garantía de continuidad operativa y seguridad en la infraestructura.\&lt;br&gt;Analista de Datos en Meta Ads\&lt;br&gt;1Monitoreo y análisis de métricas de campañas publicitarias.\&lt;br&gt;1Optimización de estrategias de marketing digital basadas en datos.</t>
+          <t>Front‑End Developer\&lt;br&gt;1Desarrollo y optimización de interfaces de usuario.\&lt;br&gt;1Implementación de estilos y componentes visuales modernos.\&lt;br&gt;Testing UX/UI\&lt;br&gt;1Evaluación de la experiencia de usuario.\&lt;br&gt;1Pruebas de usabilidad y retroalimentación para mejorar la interfaz.\&lt;br&gt;Migración de Servidores\&lt;br&gt;1Apoyo en procesos de migración y configuración de servidores.\&lt;br&gt;1Garantía de continuidad operativa y seguridad en la infraestructura.\&lt;br&gt;Analista de Datos en Meta Ads\&lt;br&gt;1Monitoreo y análisis de métricas de campañas publicitarias.\&lt;br&gt;1Optimización de estrategias de marketing digital basadas en datos.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lider de Departamento</t>
+          <t>Lider de Departamento&lt;br&gt;Profesor de Robótica&lt;br&gt;Software Developer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -516,7 +516,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Arduino, Cpp, Python, Lua, CustomTkinter, Flet, Scratch, mBlock, MicroBit, Tinkercad, RobloxStudio</t>
+          <t>Arduino, Cpp, Python, JavaScript, Lua, CustomTkinter, Flet, Scratch, mBlock, MicroBit, Tinkercad, RobloxStudio</t>
         </is>
       </c>
     </row>
